--- a/2022April Sprint Test cases.xlsx
+++ b/2022April Sprint Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1914A64-0B15-4CC8-BD7A-A0662FACBF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC5EE0-7131-4CCD-B28E-E8951A84C45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1110" windowWidth="17655" windowHeight="14490" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7440" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA Test Cases" sheetId="1" r:id="rId1"/>
@@ -665,23 +665,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626AB73-D654-434C-9659-C4D28008D556}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="65.81640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -727,7 +727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -750,7 +750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -773,7 +773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -796,7 +796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -819,7 +819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -842,7 +842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -865,7 +865,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -888,7 +888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -911,7 +911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -934,7 +934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -955,7 +955,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -976,7 +976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>

--- a/2022April Sprint Test cases.xlsx
+++ b/2022April Sprint Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC5EE0-7131-4CCD-B28E-E8951A84C45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028AE16B-EA96-4F7D-9FF4-6589B2890390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7440" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA Test Cases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>SR#</t>
   </si>
@@ -204,43 +204,22 @@
     <t>not added to queue by Dispatcher</t>
   </si>
   <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 991047</t>
-  </si>
-  <si>
     <t>Reason: No matching Account Number on the lookup table. Account Number: TESTING</t>
   </si>
   <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 991048</t>
-  </si>
-  <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 991040</t>
-  </si>
-  <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 991041</t>
-  </si>
-  <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 991044</t>
-  </si>
-  <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 991046</t>
-  </si>
-  <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 991002</t>
-  </si>
-  <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 991045</t>
-  </si>
-  <si>
-    <t>Reason: No matching Account Number on the lookup table. Account Number: 533704</t>
-  </si>
-  <si>
-    <t>Success, CCR</t>
-  </si>
-  <si>
-    <t>Success, Assign To</t>
-  </si>
-  <si>
     <t>SR0003015462</t>
+  </si>
+  <si>
+    <t>AppliedPatch_AssignTo</t>
+  </si>
+  <si>
+    <t>AppliedPatch_CCRAssignTo</t>
+  </si>
+  <si>
+    <t>AppliedPatch_OnlyQueue</t>
+  </si>
+  <si>
+    <t>AppliedPatch_CCR</t>
   </si>
 </sst>
 </file>
@@ -665,23 +644,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626AB73-D654-434C-9659-C4D28008D556}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="3" customWidth="1"/>
     <col min="2" max="2" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="3"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="65.81640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="3"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -727,7 +706,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -747,10 +726,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -769,11 +748,9 @@
       <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -792,11 +769,9 @@
       <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -815,11 +790,9 @@
       <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -838,11 +811,9 @@
       <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -862,10 +833,10 @@
         <v>30</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -885,10 +856,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -908,10 +879,10 @@
         <v>38</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -931,10 +902,10 @@
         <v>41</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -952,10 +923,10 @@
         <v>54</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -973,12 +944,12 @@
         <v>54</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>52</v>
@@ -994,7 +965,7 @@
         <v>54</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/2022April Sprint Test cases.xlsx
+++ b/2022April Sprint Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028AE16B-EA96-4F7D-9FF4-6589B2890390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A297A-D4BB-4D88-8AE2-F0E46E9A1A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022April Sprint Test cases.xlsx
+++ b/2022April Sprint Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A297A-D4BB-4D88-8AE2-F0E46E9A1A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4536CE7-8616-4CC0-9105-B4734ACBAA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
+    <workbookView xWindow="6060" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA Test Cases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>SR#</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t>AppliedPatch_CCR</t>
+  </si>
+  <si>
+    <t>Reason: SR Failed to update. Lookup InformationSR0003015453,Beverly Johnson,COR-Bad-Queue-Name,991047..</t>
+  </si>
+  <si>
+    <t>Reason: SR Failed to update. Lookup Information:SR0003015454,COR-Bad-Queue-Name,991048,Beverly Johnson.</t>
+  </si>
+  <si>
+    <t>Reason: SR Failed to update. Lookup InformationSR0003015455,Beverly Johnson,COR-Bad-Queue-Name,991040.,Beverly Johnson.</t>
+  </si>
+  <si>
+    <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015452, COR-Bad-Queue-Name.</t>
+  </si>
+  <si>
+    <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015453, Beverly Johnson, COR-Bad-Queue-Name, 991047. .</t>
+  </si>
+  <si>
+    <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015454, COR-Bad-Queue-Name, 991048, Beverly Johnson.</t>
+  </si>
+  <si>
+    <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015455, Beverly Johnson, COR-Bad-Queue-Name, 991040. , Beverly Johnson.</t>
   </si>
 </sst>
 </file>
@@ -642,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626AB73-D654-434C-9659-C4D28008D556}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,11 +677,12 @@
     <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" style="11" customWidth="1"/>
     <col min="6" max="6" width="65.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="35.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,11 +701,12 @@
       <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -705,8 +728,11 @@
       <c r="G2" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H2" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -725,11 +751,14 @@
       <c r="F3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -748,9 +777,14 @@
       <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -769,9 +803,14 @@
       <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -790,9 +829,14 @@
       <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -811,9 +855,14 @@
       <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -835,8 +884,11 @@
       <c r="G8" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -855,11 +907,12 @@
       <c r="F9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -881,8 +934,11 @@
       <c r="G10" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -901,11 +957,12 @@
       <c r="F11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -925,8 +982,11 @@
       <c r="G12" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -943,11 +1003,12 @@
       <c r="F13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -964,11 +1025,13 @@
       <c r="F14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="10" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2022April Sprint Test cases.xlsx
+++ b/2022April Sprint Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4536CE7-8616-4CC0-9105-B4734ACBAA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED30E9AA-CEFD-4B46-9AF9-E6244797EBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>SR#</t>
   </si>
@@ -232,15 +232,6 @@
   </si>
   <si>
     <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015452, COR-Bad-Queue-Name.</t>
-  </si>
-  <si>
-    <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015453, Beverly Johnson, COR-Bad-Queue-Name, 991047. .</t>
-  </si>
-  <si>
-    <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015454, COR-Bad-Queue-Name, 991048, Beverly Johnson.</t>
-  </si>
-  <si>
-    <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015455, Beverly Johnson, COR-Bad-Queue-Name, 991040. , Beverly Johnson.</t>
   </si>
 </sst>
 </file>
@@ -666,13 +657,13 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" style="11" customWidth="1"/>
@@ -751,14 +742,12 @@
       <c r="F3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="G3" s="13"/>
       <c r="H3" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -777,14 +766,12 @@
       <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="G4" s="13"/>
       <c r="H4" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -803,14 +790,12 @@
       <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -829,14 +814,12 @@
       <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="G6" s="13"/>
       <c r="H6" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -855,9 +838,7 @@
       <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="10" t="s">
         <v>64</v>
       </c>
@@ -881,9 +862,7 @@
       <c r="F8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
         <v>60</v>
       </c>
@@ -907,7 +886,9 @@
       <c r="F9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>61</v>
       </c>
@@ -931,9 +912,7 @@
       <c r="F10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
         <v>58</v>
       </c>
@@ -957,7 +936,9 @@
       <c r="F11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>59</v>
       </c>
@@ -1003,7 +984,9 @@
       <c r="F13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>61</v>
       </c>
@@ -1025,7 +1008,9 @@
       <c r="F14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>58</v>
       </c>

--- a/2022April Sprint Test cases.xlsx
+++ b/2022April Sprint Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED30E9AA-CEFD-4B46-9AF9-E6244797EBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F39257-BFD6-437C-8C8E-AAD664179FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
+    <workbookView xWindow="14130" yWindow="480" windowWidth="14745" windowHeight="14970" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA Test Cases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>SR#</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>SR0003015450</t>
   </si>
   <si>
@@ -222,16 +219,13 @@
     <t>AppliedPatch_CCR</t>
   </si>
   <si>
-    <t>Reason: SR Failed to update. Lookup InformationSR0003015453,Beverly Johnson,COR-Bad-Queue-Name,991047..</t>
-  </si>
-  <si>
-    <t>Reason: SR Failed to update. Lookup Information:SR0003015454,COR-Bad-Queue-Name,991048,Beverly Johnson.</t>
-  </si>
-  <si>
-    <t>Reason: SR Failed to update. Lookup InformationSR0003015455,Beverly Johnson,COR-Bad-Queue-Name,991040.,Beverly Johnson.</t>
-  </si>
-  <si>
-    <t>Reason: SR Failed to update. Assigned Queue does not exist in OEC. Lookup information: SR0003015452, COR-Bad-Queue-Name.</t>
+    <t>Reason: SR Failed to update. Assign Queue does not exist in OEC. Lookup Assign Queue: COR-Bad-Queue-Name.</t>
+  </si>
+  <si>
+    <t>not added to queue by Dispatcher (after first time)</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
   </si>
 </sst>
 </file>
@@ -268,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +281,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -339,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,10 +657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626AB73-D654-434C-9659-C4D28008D556}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,11 +673,10 @@
     <col min="5" max="5" width="49.42578125" style="11" customWidth="1"/>
     <col min="6" max="6" width="65.85546875" style="14" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,329 +693,303 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>991045</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>991046</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>991047</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5">
         <v>991048</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
         <v>991040</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>991045</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>991041</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5">
         <v>991044</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5">
         <v>991002</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5">
         <v>533704</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/2022April Sprint Test cases.xlsx
+++ b/2022April Sprint Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F39257-BFD6-437C-8C8E-AAD664179FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AA9994-C9B8-41F1-B518-9B4722F3B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="480" windowWidth="14745" windowHeight="14970" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
+    <workbookView xWindow="-26120" yWindow="110" windowWidth="14540" windowHeight="9080" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA Test Cases" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +287,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -300,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -342,6 +348,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,24 +671,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626AB73-D654-434C-9659-C4D28008D556}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="44.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="65.81640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -722,7 +734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -741,11 +753,11 @@
       <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -764,11 +776,11 @@
       <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -787,11 +799,11 @@
       <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -810,11 +822,11 @@
       <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -833,11 +845,11 @@
       <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -856,11 +868,11 @@
       <c r="F8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -879,11 +891,11 @@
       <c r="F9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -906,7 +918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -925,11 +937,11 @@
       <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -946,11 +958,11 @@
       <c r="F12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -971,7 +983,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>

--- a/2022April Sprint Test cases.xlsx
+++ b/2022April Sprint Test cases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AA9994-C9B8-41F1-B518-9B4722F3B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D666207-DA2C-4630-969C-A06158055964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26120" yWindow="110" windowWidth="14540" windowHeight="9080" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
+    <workbookView xWindow="2340" yWindow="150" windowWidth="25230" windowHeight="15450" xr2:uid="{A2A8D2E7-EC1F-4C5E-B330-8D00094F85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="RPA Test Cases (alpha)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
   <si>
     <t>SR#</t>
   </si>
@@ -144,9 +145,6 @@
     <t xml:space="preserve">Assigns Queue  and Assign To </t>
   </si>
   <si>
-    <t>Success  queue and CCR assign</t>
-  </si>
-  <si>
     <t>Success  queue and Assign To</t>
   </si>
   <si>
@@ -226,6 +224,21 @@
   </si>
   <si>
     <t>Actual Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success  queue and CCR </t>
+  </si>
+  <si>
+    <t>1.0.37-alpha.4</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>Reason: SR Failed to update. Assign Queue does not exist in OEC. Lookup Assign Queue: cor-CParker.</t>
   </si>
 </sst>
 </file>
@@ -671,24 +684,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626AB73-D654-434C-9659-C4D28008D556}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="3"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="65.81640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="44.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,10 +721,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -731,10 +744,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -754,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -777,10 +790,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -800,10 +813,10 @@
         <v>19</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -823,10 +836,10 @@
         <v>19</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -846,10 +859,10 @@
         <v>19</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -869,10 +882,10 @@
         <v>29</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -889,15 +902,15 @@
         <v>33</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
@@ -912,15 +925,15 @@
         <v>35</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -929,79 +942,441 @@
         <v>991002</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5">
         <v>533704</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359D8A8E-35FE-4B60-AC75-B4AADCBC3C94}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>991045</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>57</v>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>991046</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>991047</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>991048</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>991040</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>991045</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>991041</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>991044</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>991002</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5">
+        <v>533704</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>49</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>153</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <f>D22/D23</f>
+        <v>0.3202614379084967</v>
       </c>
     </row>
   </sheetData>
